--- a/data/trans_dic/P16A10-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A10-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16A10-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A10-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,56%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>0,87; 7,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>1,56; 8,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>2,1; 9,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>3,07; 11,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>3,04; 12,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>1,05; 9,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>1,81; 12,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>5,76; 12,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>2,51; 8,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>1,89; 7,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>2,61; 8,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>5,45; 10,42</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,87%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>4,58; 8,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>3,32; 7,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>5,1; 9,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>5,16; 9,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>3,26; 7,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>4,28; 8,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>5,08; 9,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,33; 9,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>4,42; 6,96</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>4,24; 6,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>5,35; 8,57</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>5,78; 8,28</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,4%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>4,57; 7,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,68; 6,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,41; 7,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,93; 5,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>3,99; 7,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,52; 6,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,78; 6,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>3,81; 5,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>4,71; 6,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,89; 5,89</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,42; 6,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>3,67; 5,19</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,24%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>3,78; 7,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>3,37; 6,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>4,74; 8,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>5,24; 8,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>3,5; 6,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>2,37; 5,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>4,06; 7,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,56; 5,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>4,03; 6,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>3,06; 5,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>4,76; 7,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>3,96; 6,53</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,96%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,51; 5,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>4,96; 8,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>4,4; 7,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,17; 7,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>4,18; 7,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,8; 6,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,25; 6,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,48; 6,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,2; 6,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,75; 6,92</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,19; 6,28</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>5,16; 6,88</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,54%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,7; 6,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,51; 6,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,19; 6,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,21; 6,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,6; 6,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,11; 5,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,61; 6,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>4,57; 5,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>4,8; 5,91</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>4,51; 5,54</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,16; 6,32</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>5,05; 6,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A10-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A10-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>6,82%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,16</t>
+          <t>4,09; 7,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 8,91</t>
+          <t>3,38; 6,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 9,24</t>
+          <t>4,85; 8,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 11,12</t>
+          <t>5,11; 8,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,04; 12,0</t>
+          <t>3,74; 7,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 9,53</t>
+          <t>3,89; 7,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 12,6</t>
+          <t>4,91; 9,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,76; 12,83</t>
+          <t>5,62; 8,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 8,04</t>
+          <t>4,38; 6,73</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 7,67</t>
+          <t>4,17; 6,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,61; 8,69</t>
+          <t>5,24; 7,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,45; 10,42</t>
+          <t>5,81; 8,12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>3,9%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,61</t>
+          <t>4,57; 7,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,17</t>
+          <t>3,68; 6,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,1; 9,26</t>
+          <t>4,41; 7,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,16; 9,15</t>
+          <t>1,67; 4,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 7,1</t>
+          <t>3,99; 7,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,28; 8,29</t>
+          <t>3,52; 6,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,08; 9,41</t>
+          <t>3,78; 6,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,33; 9,15</t>
+          <t>3,79; 5,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 6,96</t>
+          <t>4,71; 6,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,24; 6,91</t>
+          <t>3,89; 5,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,35; 8,57</t>
+          <t>4,42; 6,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,78; 8,28</t>
+          <t>2,64; 4,75</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,7%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,57; 7,7</t>
+          <t>3,78; 7,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 6,56</t>
+          <t>3,37; 6,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,41; 7,32</t>
+          <t>4,74; 8,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,93; 5,14</t>
+          <t>5,04; 8,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,99; 7,04</t>
+          <t>3,5; 6,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 6,3</t>
+          <t>2,37; 5,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 6,78</t>
+          <t>4,06; 7,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 5,93</t>
+          <t>1,76; 4,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 6,81</t>
+          <t>4,03; 6,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 5,89</t>
+          <t>3,06; 5,43</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,42; 6,48</t>
+          <t>4,76; 7,21</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,67; 5,19</t>
+          <t>3,04; 5,94</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>5,74%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,21</t>
+          <t>3,51; 5,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,71</t>
+          <t>4,96; 8,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,74; 8,17</t>
+          <t>4,4; 7,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 8,84</t>
+          <t>5,03; 7,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,5; 6,83</t>
+          <t>4,18; 7,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,08</t>
+          <t>3,8; 6,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,06; 7,65</t>
+          <t>3,25; 6,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,29</t>
+          <t>4,1; 6,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 6,45</t>
+          <t>4,2; 6,13</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,06; 5,43</t>
+          <t>4,75; 6,92</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,76; 7,21</t>
+          <t>4,19; 6,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 6,53</t>
+          <t>4,86; 6,65</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>5,14%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,51; 5,99</t>
+          <t>4,7; 6,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,96; 8,36</t>
+          <t>4,51; 6,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,4; 7,34</t>
+          <t>5,19; 6,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,17; 7,95</t>
+          <t>4,13; 6,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,18; 7,02</t>
+          <t>4,6; 6,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,8; 6,62</t>
+          <t>4,11; 5,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,15</t>
+          <t>4,61; 6,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,48; 6,62</t>
+          <t>4,07; 5,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,2; 6,13</t>
+          <t>4,8; 5,91</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,75; 6,92</t>
+          <t>4,51; 5,54</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,19; 6,28</t>
+          <t>5,16; 6,32</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,16; 6,88</t>
+          <t>4,46; 5,71</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>5,41%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,28%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,98%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,88%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>5,3%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>4,8%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>5,39%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>5,24%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>5,35%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>5,04%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>5,68%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>5,54%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>4,7; 6,18</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>4,51; 6,26</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>5,19; 6,84</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>5,21; 6,65</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>4,6; 6,09</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>4,11; 5,54</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>4,61; 6,28</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>4,57; 5,87</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>4,8; 5,91</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>4,51; 5,54</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>5,16; 6,32</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>5,05; 6,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16A10-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A10-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,37 +725,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,09; 7,47</t>
+          <t>3,94; 7,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,38; 6,65</t>
+          <t>3,31; 6,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 8,47</t>
+          <t>4,83; 8,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,11; 8,49</t>
+          <t>5,1; 8,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,32</t>
+          <t>3,67; 6,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,89; 7,49</t>
+          <t>4,16; 7,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,91; 9,05</t>
+          <t>5,02; 9,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,22 +765,22 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,38; 6,73</t>
+          <t>4,28; 6,62</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,17; 6,59</t>
+          <t>4,11; 6,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,24; 7,97</t>
+          <t>5,34; 8,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,81; 8,12</t>
+          <t>5,79; 8,08</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,57; 7,7</t>
+          <t>4,56; 7,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 6,56</t>
+          <t>3,55; 6,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 7,32</t>
+          <t>4,34; 7,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,49</t>
+          <t>1,78; 4,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,99; 7,04</t>
+          <t>4,07; 7,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,52; 6,3</t>
+          <t>3,57; 6,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,78; 6,78</t>
+          <t>3,75; 6,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,79; 5,86</t>
+          <t>3,9; 5,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,71; 6,81</t>
+          <t>4,75; 6,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,89; 5,89</t>
+          <t>3,98; 6,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 6,48</t>
+          <t>4,48; 6,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 4,75</t>
+          <t>2,73; 4,72</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,21</t>
+          <t>3,91; 7,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,71</t>
+          <t>3,36; 6,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,74; 8,17</t>
+          <t>4,69; 8,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,53</t>
+          <t>5,0; 8,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,5; 6,83</t>
+          <t>3,45; 7,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,08</t>
+          <t>2,41; 5,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,06; 7,65</t>
+          <t>4,02; 7,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,73</t>
+          <t>1,64; 4,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 6,45</t>
+          <t>4,15; 6,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 5,43</t>
+          <t>3,29; 5,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 7,21</t>
+          <t>4,73; 7,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 5,94</t>
+          <t>3,13; 6,02</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,51; 5,99</t>
+          <t>3,57; 6,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 8,36</t>
+          <t>5,08; 8,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,4; 7,34</t>
+          <t>4,35; 7,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,03; 7,76</t>
+          <t>5,13; 7,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 7,02</t>
+          <t>4,25; 7,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 6,62</t>
+          <t>3,64; 6,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,15</t>
+          <t>3,22; 6,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,1; 6,39</t>
+          <t>4,04; 6,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 6,13</t>
+          <t>4,29; 6,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,75; 6,92</t>
+          <t>4,62; 6,8</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 6,28</t>
+          <t>4,31; 6,39</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,86; 6,65</t>
+          <t>4,83; 6,59</t>
         </is>
       </c>
     </row>
@@ -1284,57 +1285,57 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,7; 6,18</t>
+          <t>4,62; 6,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,51; 6,26</t>
+          <t>4,48; 6,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,19; 6,84</t>
+          <t>5,11; 6,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,13; 6,21</t>
+          <t>4,1; 6,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,6; 6,09</t>
+          <t>4,57; 6,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,11; 5,54</t>
+          <t>4,08; 5,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,61; 6,28</t>
+          <t>4,62; 6,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,07; 5,59</t>
+          <t>3,94; 5,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,8; 5,91</t>
+          <t>4,8; 5,88</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,51; 5,54</t>
+          <t>4,51; 5,55</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,16; 6,32</t>
+          <t>5,09; 6,27</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>38655</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>33597</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>43686</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>42497</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>35657</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>39577</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>45392</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>46957</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>74311</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>73174</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>89078</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>89454</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>27299; 51703</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>23229; 46683</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>32605; 58310</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>32385; 53170</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>25284; 47632</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>28941; 53062</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>33772; 61096</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>38002; 57505</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>59058; 91403</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>57400; 92132</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>71948; 108768</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>75964; 105879</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>57908</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>49553</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>58419</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>38444</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>52249</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>50123</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>53127</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>45445</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>110157</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>99676</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>111547</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>83889</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>43865; 74806</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>36126; 67349</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>44333; 74148</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>21212; 54858</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>39452; 68589</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>36756; 66932</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>39080; 71155</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>37295; 56616</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>91668; 133173</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>81549; 124961</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>92540; 134137</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>58650; 101543</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>36829</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>36225</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>47043</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>46532</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>33661</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>28160</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>44696</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>30390</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>70490</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>64385</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>91739</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>76923</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>26499; 48446</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>25404; 51343</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>35620; 62032</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>35173; 59983</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>23594; 48215</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18683; 40980</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>31587; 59701</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15275; 43348</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>56531; 88495</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>50426; 82924</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>72999; 113150</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>51146; 98516</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>43915</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>61113</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>53952</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>59080</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>57378</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>52601</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>47768</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>56738</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>101293</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>113714</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>101720</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>115818</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>33677; 58339</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>47910; 81219</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>40818; 68865</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>47578; 73091</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>44143; 74772</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>38163; 68507</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>33610; 63446</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>44118; 70046</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>84992; 123538</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>92044; 135416</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>85354; 126533</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>97444; 132928</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>177307</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>180488</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>203100</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>186554</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>178944</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>170460</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>190984</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>179530</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>356251</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>350949</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>394084</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>366084</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>151478; 205422</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>153180; 207758</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>173541; 230261</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>141855; 213766</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>154492; 204222</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>144719; 196865</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>163842; 219186</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>144087; 202394</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>319374; 391562</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>314112; 386473</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>353330; 434981</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>317171; 406526</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>